--- a/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesësDior.xlsx
+++ b/1-Situacioni/regjistri/18-Koordinatat-e-ndërtesësDior.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\1-Situacioni\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Sojevë\INXHINIERIKE\Dior\1-Situacioni\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1168,6 +1168,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1244,24 +1262,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:I18"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,112 +2044,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -2446,34 +2446,34 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="26" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
     </row>
     <row r="36" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47">
         <v>152</v>
       </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="40"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K37" s="4"/>
@@ -2503,10 +2503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:U34"/>
+  <dimension ref="E7:AA34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U34" sqref="E8:U34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,1243 +2521,1468 @@
     <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="52" t="s">
+    <row r="7" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="M8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="R8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="S8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="T8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U8" s="49" t="s">
+      <c r="U8" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E9" s="43">
+    <row r="9" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E9" s="17">
         <v>21</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="16">
         <v>7510856.2149999999</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="16">
         <v>4693755.2929999996</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="16">
         <v>580.50199999999995</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="17">
         <v>17</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="16">
         <v>7510838.915</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="16">
         <v>4693774.6979999999</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="16">
         <v>580.52099999999996</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="17">
         <v>41</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="16">
         <v>7510832.7000000002</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="16">
         <v>4693767.3870000001</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="16">
         <v>587.18700000000001</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="U9" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E10" s="51">
+      <c r="Y9">
+        <v>888</v>
+      </c>
+      <c r="Z9">
+        <v>7517872.4009999996</v>
+      </c>
+      <c r="AA9">
+        <v>4692654.2079999996</v>
+      </c>
+    </row>
+    <row r="10" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E10" s="25">
         <v>26</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="19">
         <v>7510850.9060000004</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="19">
         <v>4693765.8650000002</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="19">
         <v>580.45299999999997</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="25">
         <v>14</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="19">
         <v>7510848.7010000004</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="19">
         <v>4693764.6710000001</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="19">
         <v>580.44100000000003</v>
       </c>
-      <c r="O10" s="41" t="s">
+      <c r="O10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="25">
         <v>65</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="19">
         <v>7510834.4950000001</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="19">
         <v>4693744.9019999998</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="19">
         <v>587.375</v>
       </c>
-      <c r="U10" s="41" t="s">
+      <c r="U10" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E11" s="51">
+      <c r="Y10">
+        <v>7776</v>
+      </c>
+      <c r="Z10">
+        <v>7517864.8779999996</v>
+      </c>
+      <c r="AA10">
+        <v>4692652.7949999999</v>
+      </c>
+    </row>
+    <row r="11" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E11" s="25">
         <v>29</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="19">
         <v>7510843.0310000004</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="19">
         <v>4693780.1500000004</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="19">
         <v>580.28499999999997</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="25">
         <v>296</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="19">
         <v>7510832.5769999996</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="19">
         <v>4693767.6793</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="O11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="25">
         <v>66</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="19">
         <v>7510822.3530000001</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="19">
         <v>4693757.1469999999</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="19">
         <v>588.27300000000002</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E12" s="51">
+      <c r="Y11">
+        <v>7777</v>
+      </c>
+      <c r="Z11">
+        <v>7517858.9309999999</v>
+      </c>
+      <c r="AA11">
+        <v>4692679.7209999999</v>
+      </c>
+    </row>
+    <row r="12" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E12" s="25">
         <v>59</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="19">
         <v>7510814.6770000001</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="19">
         <v>4693718.9680000003</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="19">
         <v>581.64</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="25">
         <v>297</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="19">
         <v>7510844.9981000004</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="19">
         <v>4693755.2103000004</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="25">
         <v>42</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="19">
         <v>7510843.898</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="19">
         <v>4693754.335</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="19">
         <v>590.178</v>
       </c>
-      <c r="U12" s="41" t="s">
+      <c r="U12" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E13" s="51">
+      <c r="Y12">
+        <v>7778</v>
+      </c>
+      <c r="Z12">
+        <v>7517857.7319999998</v>
+      </c>
+      <c r="AA12">
+        <v>4692682.5029999996</v>
+      </c>
+    </row>
+    <row r="13" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E13" s="25">
         <v>3</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="19">
         <v>7510839.8039999995</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="19">
         <v>4693780.8849999998</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="19">
         <v>580.41899999999998</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="25">
         <v>298</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="19">
         <v>7510834.6544000003</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="19">
         <v>4693744.9063999997</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="25">
         <v>70</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="19">
         <v>7510823.3039999995</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="19">
         <v>4693758.0789999999</v>
       </c>
-      <c r="T13" s="45">
+      <c r="T13" s="19">
         <v>590.18700000000001</v>
       </c>
-      <c r="U13" s="41" t="s">
+      <c r="U13" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="51">
+      <c r="Y13">
+        <v>7779</v>
+      </c>
+      <c r="Z13">
+        <v>7517871.3550000004</v>
+      </c>
+      <c r="AA13">
+        <v>4692684.4349999996</v>
+      </c>
+    </row>
+    <row r="14" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E14" s="25">
         <v>55</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="19">
         <v>7510852.227</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="19">
         <v>4693757.7929999996</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="19">
         <v>580.50400000000002</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="25">
         <v>299</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="19">
         <v>7510822.2334000003</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="19">
         <v>4693757.3755000001</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="Q14" s="25">
         <v>71</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="19">
         <v>7510822.4110000003</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="19">
         <v>4693757.165</v>
       </c>
-      <c r="T14" s="45">
+      <c r="T14" s="19">
         <v>590.17399999999998</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="U14" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="51">
+      <c r="Y14">
+        <v>7780</v>
+      </c>
+      <c r="Z14">
+        <v>7517877.9380000001</v>
+      </c>
+      <c r="AA14">
+        <v>4692655.2350000003</v>
+      </c>
+    </row>
+    <row r="15" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E15" s="25">
         <v>57</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="19">
         <v>7510817.4160000002</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="19">
         <v>4693754.5769999996</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="19">
         <v>581.05799999999999</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="25">
         <v>327</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="19">
         <v>7510933.0552000003</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="19">
         <v>4693778.8828999996</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="19">
         <v>665.279</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="25">
         <v>72</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="19">
         <v>7510822.4000000004</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="19">
         <v>4693757.1540000001</v>
       </c>
-      <c r="T15" s="45">
+      <c r="T15" s="19">
         <v>591.33199999999999</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="U15" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E16" s="51">
+      <c r="Y15">
+        <v>889</v>
+      </c>
+      <c r="Z15">
+        <v>7517922.4419999998</v>
+      </c>
+      <c r="AA15">
+        <v>4692663.4859999996</v>
+      </c>
+    </row>
+    <row r="16" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E16" s="25">
         <v>20</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="19">
         <v>7510852.4390000002</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="19">
         <v>4693756.551</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="19">
         <v>580.61400000000003</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="25">
         <v>22</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="19">
         <v>7510856.2220000001</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="19">
         <v>4693755.2879999997</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="19">
         <v>580.56600000000003</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="O16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="25">
         <v>43</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="19">
         <v>7510844.7580000004</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="19">
         <v>4693755.1890000002</v>
       </c>
-      <c r="T16" s="45">
+      <c r="T16" s="19">
         <v>590.18700000000001</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="U16" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="51">
+      <c r="Y16">
+        <v>890</v>
+      </c>
+      <c r="Z16">
+        <v>7517961.392</v>
+      </c>
+      <c r="AA16">
+        <v>4692671.4840000002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E17" s="25">
         <v>79</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="19">
         <v>7510832.0049999999</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="19">
         <v>4693747.3870000001</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="19">
         <v>598.59400000000005</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="25">
         <v>23</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="19">
         <v>7510850.8899999997</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="19">
         <v>4693752.8590000002</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="19">
         <v>580.62599999999998</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="25">
         <v>44</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="19">
         <v>7510844.7620000001</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="19">
         <v>4693755.193</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="19">
         <v>591.33799999999997</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="U17" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E18" s="51">
+      <c r="Y17">
+        <v>891</v>
+      </c>
+      <c r="Z17">
+        <v>7517962.0530000003</v>
+      </c>
+      <c r="AA17">
+        <v>4692671.5420000004</v>
+      </c>
+    </row>
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E18" s="25">
         <v>28</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="19">
         <v>7510842.0080000004</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="19">
         <v>4693779.1569999997</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="19">
         <v>580.46400000000006</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="25">
         <v>24</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="19">
         <v>7510845.5630000001</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="19">
         <v>4693763.2079999996</v>
       </c>
-      <c r="N18" s="45">
+      <c r="N18" s="19">
         <v>580.58399999999995</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="25">
         <v>45</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="19">
         <v>7510831.8420000002</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="19">
         <v>4693766.5580000002</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="19">
         <v>593.30399999999997</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="U18" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E19" s="51">
+      <c r="Y18">
+        <v>2135</v>
+      </c>
+      <c r="Z18">
+        <v>7517874.9139999999</v>
+      </c>
+      <c r="AA18">
+        <v>4692730.5549999997</v>
+      </c>
+    </row>
+    <row r="19" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E19" s="25">
         <v>53</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="19">
         <v>7510850.0630000001</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="19">
         <v>4693754.32</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="19">
         <v>585.34500000000003</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="25">
         <v>25</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="19">
         <v>7510850.8569999998</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="19">
         <v>4693765.8459999999</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="19">
         <v>580.52800000000002</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="O19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="25">
         <v>46</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="19">
         <v>7510832.6900000004</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="19">
         <v>4693767.4069999997</v>
       </c>
-      <c r="T19" s="45">
+      <c r="T19" s="19">
         <v>593.298</v>
       </c>
-      <c r="U19" s="41" t="s">
+      <c r="U19" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E20" s="51">
+      <c r="Y19">
+        <v>2136</v>
+      </c>
+      <c r="Z19">
+        <v>7517878.5539999995</v>
+      </c>
+      <c r="AA19">
+        <v>4692721.9249999998</v>
+      </c>
+    </row>
+    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E20" s="25">
         <v>300</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="19">
         <v>7510830.3503999999</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="19">
         <v>4693739.4398999996</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="19">
         <v>581.18700000000001</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="25">
         <v>30</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="19">
         <v>7510843.0099999998</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="19">
         <v>4693780.1459999997</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="19">
         <v>580.33699999999999</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="O20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="25">
         <v>67</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="T20" s="45">
+      <c r="T20" s="19">
         <v>590.16700000000003</v>
       </c>
-      <c r="U20" s="41" t="s">
+      <c r="U20" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E21" s="51">
+      <c r="Y20">
+        <v>2137</v>
+      </c>
+      <c r="Z20">
+        <v>7517892.943</v>
+      </c>
+      <c r="AA20">
+        <v>4692714.2450000001</v>
+      </c>
+    </row>
+    <row r="21" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E21" s="25">
         <v>5</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="19">
         <v>7510828.8200000003</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="19">
         <v>4693736.5530000003</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="19">
         <v>581.25199999999995</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="25">
         <v>31</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="19">
         <v>7510837.977</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="19">
         <v>4693776.977</v>
       </c>
-      <c r="N21" s="45">
+      <c r="N21" s="19">
         <v>580.41</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="25">
         <v>68</v>
       </c>
-      <c r="R21" s="45">
+      <c r="R21" s="19">
         <v>7510834.5439999998</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="19">
         <v>4693744.9340000004</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="19">
         <v>590.14400000000001</v>
       </c>
-      <c r="U21" s="41" t="s">
+      <c r="U21" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E22" s="51">
+      <c r="Y21">
+        <v>2139</v>
+      </c>
+      <c r="Z21">
+        <v>7517935.2230000002</v>
+      </c>
+      <c r="AA21">
+        <v>4692706.6349999998</v>
+      </c>
+    </row>
+    <row r="22" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E22" s="25">
         <v>9</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="19">
         <v>7510847.3049999997</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="19">
         <v>4693756.4369999999</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="19">
         <v>580.69899999999996</v>
       </c>
-      <c r="I22" s="41" t="s">
+      <c r="I22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="25">
         <v>32</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="19">
         <v>7510843.9029999999</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="19">
         <v>4693754.3380000005</v>
       </c>
-      <c r="N22" s="45">
+      <c r="N22" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="Q22" s="25">
         <v>69</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="19">
         <v>7510834.4929999998</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="19">
         <v>4693745.0290000001</v>
       </c>
-      <c r="T22" s="45">
+      <c r="T22" s="19">
         <v>591.36199999999997</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="U22" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E23" s="51">
+      <c r="Y22">
+        <v>2140</v>
+      </c>
+      <c r="Z22">
+        <v>7517943.5429999996</v>
+      </c>
+      <c r="AA22">
+        <v>4692702.9730000002</v>
+      </c>
+    </row>
+    <row r="23" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E23" s="25">
         <v>16</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="19">
         <v>7510838.7439999999</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="19">
         <v>4693774.6440000003</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="19">
         <v>580.524</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="25">
         <v>63</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="19">
         <v>7510823.3119999999</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="19">
         <v>4693758.0619999999</v>
       </c>
-      <c r="N23" s="45">
+      <c r="N23" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="51">
+      <c r="Q23" s="25">
         <v>47</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="19">
         <v>7510843.8969999999</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="19">
         <v>4693754.3430000003</v>
       </c>
-      <c r="T23" s="45">
+      <c r="T23" s="19">
         <v>593.25900000000001</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="U23" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E24" s="51">
+      <c r="Y23">
+        <v>2141</v>
+      </c>
+      <c r="Z23">
+        <v>7517944.5279999999</v>
+      </c>
+      <c r="AA23">
+        <v>4692701.2350000003</v>
+      </c>
+    </row>
+    <row r="24" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E24" s="25">
         <v>58</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="19">
         <v>7510816.0659999996</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="19">
         <v>4693753.0669999998</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="19">
         <v>581.00300000000004</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="25">
         <v>64</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="19">
         <v>7510822.3650000002</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="19">
         <v>4693757.1229999997</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="51">
+      <c r="Q24" s="25">
         <v>76</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="19">
         <v>7510823.3119999999</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="19">
         <v>4693758.0619999999</v>
       </c>
-      <c r="T24" s="45">
+      <c r="T24" s="19">
         <v>593.27300000000002</v>
       </c>
-      <c r="U24" s="41" t="s">
+      <c r="U24" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E25" s="51">
+      <c r="Y24">
+        <v>2142</v>
+      </c>
+      <c r="Z24">
+        <v>7517945.3130000001</v>
+      </c>
+      <c r="AA24">
+        <v>4692700.273</v>
+      </c>
+    </row>
+    <row r="25" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E25" s="25">
         <v>4</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="19">
         <v>7510828.2419999996</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="19">
         <v>4693730.3839999996</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="19">
         <v>581.38199999999995</v>
       </c>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="25">
         <v>34</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="19">
         <v>7510844.7369999997</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="19">
         <v>4693755.2079999996</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O25" s="41" t="s">
+      <c r="O25" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="51">
+      <c r="Q25" s="25">
         <v>77</v>
       </c>
-      <c r="R25" s="45">
+      <c r="R25" s="19">
         <v>7510822.3890000004</v>
       </c>
-      <c r="S25" s="45">
+      <c r="S25" s="19">
         <v>4693757.1330000004</v>
       </c>
-      <c r="T25" s="45">
+      <c r="T25" s="19">
         <v>593.26400000000001</v>
       </c>
-      <c r="U25" s="41" t="s">
+      <c r="U25" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E26" s="51">
+      <c r="Y25">
+        <v>2143</v>
+      </c>
+      <c r="Z25">
+        <v>7517947.6830000002</v>
+      </c>
+      <c r="AA25">
+        <v>4692697.8830000004</v>
+      </c>
+    </row>
+    <row r="26" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E26" s="25">
         <v>6</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="19">
         <v>7510835.7640000004</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="19">
         <v>4693738.5750000002</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="19">
         <v>581.18100000000004</v>
       </c>
-      <c r="I26" s="41" t="s">
+      <c r="I26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="25">
         <v>35</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="19">
         <v>7510831.858</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="19">
         <v>4693766.5590000004</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="19">
         <v>584.11599999999999</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="51">
+      <c r="Q26" s="25">
         <v>78</v>
       </c>
-      <c r="R26" s="45">
+      <c r="R26" s="19">
         <v>7510822.3650000002</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="19">
         <v>4693757.1229999997</v>
       </c>
-      <c r="T26" s="45">
+      <c r="T26" s="19">
         <v>594.428</v>
       </c>
-      <c r="U26" s="41" t="s">
+      <c r="U26" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E27" s="51">
+      <c r="Y26">
+        <v>2144</v>
+      </c>
+      <c r="Z26">
+        <v>7517949.943</v>
+      </c>
+      <c r="AA26">
+        <v>4692696.0130000003</v>
+      </c>
+    </row>
+    <row r="27" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E27" s="25">
         <v>7</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="19">
         <v>7510835.7649999997</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="19">
         <v>4693738.5750000002</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="19">
         <v>581.18299999999999</v>
       </c>
-      <c r="I27" s="41" t="s">
+      <c r="I27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="25">
         <v>36</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="19">
         <v>7510832.6960000005</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="19">
         <v>4693767.4139999999</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="O27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="51">
+      <c r="Q27" s="25">
         <v>48</v>
       </c>
-      <c r="R27" s="45">
+      <c r="R27" s="19">
         <v>7510844.7369999997</v>
       </c>
-      <c r="S27" s="45">
+      <c r="S27" s="19">
         <v>4693755.2079999996</v>
       </c>
-      <c r="T27" s="45">
+      <c r="T27" s="19">
         <v>593.27200000000005</v>
       </c>
-      <c r="U27" s="41" t="s">
+      <c r="U27" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E28" s="51">
+      <c r="Y27">
+        <v>7778</v>
+      </c>
+      <c r="Z27">
+        <v>7517857.7319999998</v>
+      </c>
+      <c r="AA27">
+        <v>4692682.5029999996</v>
+      </c>
+    </row>
+    <row r="28" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E28" s="25">
         <v>8</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="19">
         <v>7510849.3859999999</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="19">
         <v>4693753.449</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="19">
         <v>580.72500000000002</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="25">
         <v>61</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O28" s="41" t="s">
+      <c r="O28" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="51">
+      <c r="Q28" s="25">
         <v>49</v>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="19">
         <v>7510844.7620000001</v>
       </c>
-      <c r="S28" s="45">
+      <c r="S28" s="19">
         <v>4693755.2110000001</v>
       </c>
-      <c r="T28" s="45">
+      <c r="T28" s="19">
         <v>594.38800000000003</v>
       </c>
-      <c r="U28" s="41" t="s">
+      <c r="U28" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E29" s="51">
+      <c r="Y28">
+        <v>7779</v>
+      </c>
+      <c r="Z28">
+        <v>7517871.3550000004</v>
+      </c>
+      <c r="AA28">
+        <v>4692684.4349999996</v>
+      </c>
+    </row>
+    <row r="29" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E29" s="25">
         <v>52</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="19">
         <v>7510853.9239999996</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="19">
         <v>4693743.9119999995</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="19">
         <v>584.55100000000004</v>
       </c>
-      <c r="I29" s="41" t="s">
+      <c r="I29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="25">
         <v>62</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="19">
         <v>7510834.4950000001</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="19">
         <v>4693744.9019999998</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="19">
         <v>584.08900000000006</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Q29" s="51">
+      <c r="Q29" s="25">
         <v>50</v>
       </c>
-      <c r="R29" s="45">
+      <c r="R29" s="19">
         <v>7510831.8420000002</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="19">
         <v>4693766.5599999996</v>
       </c>
-      <c r="T29" s="45">
+      <c r="T29" s="19">
         <v>593.30600000000004</v>
       </c>
-      <c r="U29" s="41" t="s">
+      <c r="U29" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E30" s="51">
+      <c r="Y29">
+        <v>7780</v>
+      </c>
+      <c r="Z29">
+        <v>7517877.9380000001</v>
+      </c>
+      <c r="AA29">
+        <v>4692655.2350000003</v>
+      </c>
+    </row>
+    <row r="30" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E30" s="25">
         <v>1</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="19">
         <v>7510839.7960000001</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="19">
         <v>4693780.8739999998</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="19">
         <v>580.41399999999999</v>
       </c>
-      <c r="I30" s="41" t="s">
+      <c r="I30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="25">
         <v>37</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="19">
         <v>7510843.8969999999</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="19">
         <v>4693754.3380000005</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N30" s="19">
         <v>587.15499999999997</v>
       </c>
-      <c r="O30" s="41" t="s">
+      <c r="O30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q30" s="51">
+      <c r="Q30" s="25">
         <v>51</v>
       </c>
-      <c r="R30" s="45">
+      <c r="R30" s="19">
         <v>7510832.6960000005</v>
       </c>
-      <c r="S30" s="45">
+      <c r="S30" s="19">
         <v>4693767.4139999999</v>
       </c>
-      <c r="T30" s="45">
+      <c r="T30" s="19">
         <v>593.298</v>
       </c>
-      <c r="U30" s="41" t="s">
+      <c r="U30" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E31" s="51">
+      <c r="Y30">
+        <v>8510</v>
+      </c>
+      <c r="Z30">
+        <v>7517878.5319999997</v>
+      </c>
+      <c r="AA30">
+        <v>4692721.977</v>
+      </c>
+    </row>
+    <row r="31" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E31" s="25">
         <v>2</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="19">
         <v>7510852.2230000002</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="19">
         <v>4693757.7889999999</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="19">
         <v>580.53899999999999</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="25">
         <v>38</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="19">
         <v>7510844.733</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="19">
         <v>4693755.176</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="19">
         <v>587.16200000000003</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q31" s="51">
+      <c r="Q31" s="25">
         <v>73</v>
       </c>
-      <c r="R31" s="45">
+      <c r="R31" s="19">
         <v>7510835.4249999998</v>
       </c>
-      <c r="S31" s="45">
+      <c r="S31" s="19">
         <v>4693745.824</v>
       </c>
-      <c r="T31" s="45">
+      <c r="T31" s="19">
         <v>593.25400000000002</v>
       </c>
-      <c r="U31" s="41" t="s">
+      <c r="U31" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E32" s="51">
+      <c r="Y31">
+        <v>7695</v>
+      </c>
+      <c r="Z31">
+        <v>7517874.2690000003</v>
+      </c>
+      <c r="AA31">
+        <v>4692745.0889999997</v>
+      </c>
+    </row>
+    <row r="32" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E32" s="25">
         <v>54</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="19">
         <v>7510827.0769999996</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="19">
         <v>4693733.3370000003</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="19">
         <v>581.29300000000001</v>
       </c>
-      <c r="I32" s="41" t="s">
+      <c r="I32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="25">
         <v>39</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="19">
         <v>7510844.7539999997</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="19">
         <v>4693755.1730000004</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="19">
         <v>588.27200000000005</v>
       </c>
-      <c r="O32" s="41" t="s">
+      <c r="O32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="25">
         <v>74</v>
       </c>
-      <c r="R32" s="45">
+      <c r="R32" s="19">
         <v>7510834.5439999998</v>
       </c>
-      <c r="S32" s="45">
+      <c r="S32" s="19">
         <v>4693744.9400000004</v>
       </c>
-      <c r="T32" s="45">
+      <c r="T32" s="19">
         <v>593.24800000000005</v>
       </c>
-      <c r="U32" s="41" t="s">
+      <c r="U32" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="47">
+      <c r="Y32">
+        <v>7698</v>
+      </c>
+      <c r="Z32">
+        <v>7517914.8420000002</v>
+      </c>
+      <c r="AA32">
+        <v>4692715.2489999998</v>
+      </c>
+    </row>
+    <row r="33" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="21">
         <v>10</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="18">
         <v>7510847.4340000004</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33" s="18">
         <v>4693756.4050000003</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="18">
         <v>580.69799999999998</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="21">
         <v>40</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33" s="18">
         <v>7510831.8430000003</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33" s="18">
         <v>4693766.5710000005</v>
       </c>
-      <c r="N33" s="44">
+      <c r="N33" s="18">
         <v>587.17100000000005</v>
       </c>
-      <c r="O33" s="48" t="s">
+      <c r="O33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Q33" s="51">
+      <c r="Q33" s="25">
         <v>75</v>
       </c>
-      <c r="R33" s="45">
+      <c r="R33" s="19">
         <v>7510834.4809999997</v>
       </c>
-      <c r="S33" s="45">
+      <c r="S33" s="19">
         <v>4693745.0439999998</v>
       </c>
-      <c r="T33" s="45">
+      <c r="T33" s="19">
         <v>594.46500000000003</v>
       </c>
-      <c r="U33" s="41" t="s">
+      <c r="U33" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q34" s="47">
+      <c r="Y33">
+        <v>7781</v>
+      </c>
+      <c r="Z33">
+        <v>7517842.9800000004</v>
+      </c>
+      <c r="AA33">
+        <v>4692728.8499999996</v>
+      </c>
+    </row>
+    <row r="34" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="21">
         <v>27</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="18">
         <v>7510846.4699999997</v>
       </c>
-      <c r="S34" s="44">
+      <c r="S34" s="18">
         <v>4693774.4309999999</v>
       </c>
-      <c r="T34" s="44">
+      <c r="T34" s="18">
         <v>580.39499999999998</v>
       </c>
-      <c r="U34" s="48" t="s">
+      <c r="U34" s="22" t="s">
         <v>78</v>
       </c>
     </row>
